--- a/CertificationProject-HybridFramework/framework/TestSuite/AutomationTestSuite.xlsx
+++ b/CertificationProject-HybridFramework/framework/TestSuite/AutomationTestSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Sr No</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>VerifyEnteredValues</t>
+  </si>
+  <si>
+    <t>takeScreenshot</t>
   </si>
 </sst>
 </file>
@@ -139,7 +142,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:E5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:E6" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" name="Sr No"/>
     <tableColumn id="2" name="Keywords"/>
@@ -440,15 +443,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -532,18 +535,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -593,6 +596,14 @@
       </c>
       <c r="B5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/CertificationProject-HybridFramework/framework/TestSuite/AutomationTestSuite.xlsx
+++ b/CertificationProject-HybridFramework/framework/TestSuite/AutomationTestSuite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Sr No</t>
   </si>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:E6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:E8" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" name="Sr No"/>
     <tableColumn id="2" name="Keywords"/>
@@ -449,9 +449,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -535,18 +535,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -605,6 +605,23 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CertificationProject-HybridFramework/framework/TestSuite/AutomationTestSuite.xlsx
+++ b/CertificationProject-HybridFramework/framework/TestSuite/AutomationTestSuite.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="4" r:id="rId1"/>
     <sheet name="Login" sheetId="3" r:id="rId2"/>
+    <sheet name="RegisterNewUser" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Sr No</t>
   </si>
@@ -47,9 +48,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>PreLoginValidations</t>
   </si>
   <si>
@@ -63,6 +61,15 @@
   </si>
   <si>
     <t>takeScreenshot</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>RegisterNewUser</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -142,7 +149,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:E8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:E6" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Sr No"/>
+    <tableColumn id="2" name="Keywords"/>
+    <tableColumn id="5" name="Run Status"/>
+    <tableColumn id="6" name="Comment"/>
+    <tableColumn id="7" name="Return Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table142" displayName="Table142" ref="A1:E3" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" name="Sr No"/>
     <tableColumn id="2" name="Keywords"/>
@@ -444,14 +464,14 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -479,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -488,9 +508,11 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -535,18 +557,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -571,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -579,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -587,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -595,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,25 +625,62 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CertificationProject-HybridFramework/framework/TestSuite/AutomationTestSuite.xlsx
+++ b/CertificationProject-HybridFramework/framework/TestSuite/AutomationTestSuite.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="4" r:id="rId1"/>
-    <sheet name="Login" sheetId="3" r:id="rId2"/>
-    <sheet name="RegisterNewUser" sheetId="5" r:id="rId3"/>
+    <sheet name="FindAndBookFlight" sheetId="6" r:id="rId2"/>
+    <sheet name="Login" sheetId="3" r:id="rId3"/>
+    <sheet name="RegisterNewUser" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Sr No</t>
   </si>
@@ -45,9 +46,6 @@
     <t>Test Case</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>PreLoginValidations</t>
   </si>
   <si>
@@ -70,6 +68,12 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>FindAndBookFlight</t>
+  </si>
+  <si>
+    <t>inputFlightDetails</t>
   </si>
 </sst>
 </file>
@@ -149,6 +153,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1423" displayName="Table1423" ref="A1:E5" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Sr No"/>
+    <tableColumn id="2" name="Keywords"/>
+    <tableColumn id="5" name="Run Status"/>
+    <tableColumn id="6" name="Comment"/>
+    <tableColumn id="7" name="Return Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:E6" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" name="Sr No"/>
@@ -161,7 +178,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table142" displayName="Table142" ref="A1:E3" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" name="Sr No"/>
@@ -464,7 +481,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -509,10 +526,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -521,9 +538,11 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -534,7 +553,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -545,7 +564,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -556,11 +575,84 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -601,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -609,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -617,7 +709,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -625,7 +717,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -636,11 +728,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -668,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -676,7 +768,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>

--- a/CertificationProject-HybridFramework/framework/TestSuite/AutomationTestSuite.xlsx
+++ b/CertificationProject-HybridFramework/framework/TestSuite/AutomationTestSuite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Sr No</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>inputFlightDetails</t>
+  </si>
+  <si>
+    <t>selectFlight</t>
+  </si>
+  <si>
+    <t>bookFlight</t>
   </si>
 </sst>
 </file>
@@ -153,7 +159,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1423" displayName="Table1423" ref="A1:E5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1423" displayName="Table1423" ref="A1:E7" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" name="Sr No"/>
     <tableColumn id="2" name="Keywords"/>
@@ -576,10 +582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,6 +644,22 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CertificationProject-HybridFramework/framework/TestSuite/AutomationTestSuite.xlsx
+++ b/CertificationProject-HybridFramework/framework/TestSuite/AutomationTestSuite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Sr No</t>
   </si>
@@ -67,9 +67,6 @@
     <t>RegisterNewUser</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>FindAndBookFlight</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>bookFlight</t>
+  </si>
+  <si>
+    <t>openFlightBookingPage</t>
   </si>
 </sst>
 </file>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1423" displayName="Table1423" ref="A1:E7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1423" displayName="Table1423" ref="A1:E6" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" name="Sr No"/>
     <tableColumn id="2" name="Keywords"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table142" displayName="Table142" ref="A1:E3" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table142" displayName="Table142" ref="A1:E2" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" name="Sr No"/>
     <tableColumn id="2" name="Keywords"/>
@@ -484,15 +484,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="2" customWidth="1"/>
   </cols>
@@ -522,7 +522,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -535,7 +535,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -545,35 +545,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -582,10 +560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,58 +585,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
+      <c r="B4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +641,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,10 +719,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,24 +744,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CertificationProject-HybridFramework/framework/TestSuite/AutomationTestSuite.xlsx
+++ b/CertificationProject-HybridFramework/framework/TestSuite/AutomationTestSuite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Sr No</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>openFlightBookingPage</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>closeBrowser</t>
   </si>
 </sst>
 </file>
@@ -159,7 +165,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1423" displayName="Table1423" ref="A1:E6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1423" displayName="Table1423" ref="A1:E8" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" name="Sr No"/>
     <tableColumn id="2" name="Keywords"/>
@@ -492,9 +498,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -560,10 +566,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,6 +632,22 @@
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -646,10 +668,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">

--- a/CertificationProject-HybridFramework/framework/TestSuite/AutomationTestSuite.xlsx
+++ b/CertificationProject-HybridFramework/framework/TestSuite/AutomationTestSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="4" r:id="rId1"/>
@@ -82,10 +82,10 @@
     <t>openFlightBookingPage</t>
   </si>
   <si>
-    <t>logout</t>
-  </si>
-  <si>
-    <t>closeBrowser</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>openLoginURL</t>
   </si>
 </sst>
 </file>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1423" displayName="Table1423" ref="A1:E8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1423" displayName="Table1423" ref="A1:E6" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" name="Sr No"/>
     <tableColumn id="2" name="Keywords"/>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:E6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:E7" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" name="Sr No"/>
     <tableColumn id="2" name="Keywords"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table142" displayName="Table142" ref="A1:E2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table142" displayName="Table142" ref="A1:E3" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" name="Sr No"/>
     <tableColumn id="2" name="Keywords"/>
@@ -492,15 +492,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
@@ -554,7 +554,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -566,10 +566,180 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -604,178 +774,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CertificationProject-HybridFramework/framework/TestSuite/AutomationTestSuite.xlsx
+++ b/CertificationProject-HybridFramework/framework/TestSuite/AutomationTestSuite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Sr No</t>
   </si>
@@ -82,10 +82,10 @@
     <t>openFlightBookingPage</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>openLoginURL</t>
+  </si>
+  <si>
+    <t>closeBrowser</t>
   </si>
 </sst>
 </file>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1423" displayName="Table1423" ref="A1:E6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1423" displayName="Table1423" ref="A1:E7" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" name="Sr No"/>
     <tableColumn id="2" name="Keywords"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +554,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -566,10 +566,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,6 +635,14 @@
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -683,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
